--- a/data/MPA_coordinates_no_deg.xlsx
+++ b/data/MPA_coordinates_no_deg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD61E770-0BCC-43E8-99DD-00250464DEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76802014-1151-4918-A6A6-D718029D77B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="0" windowWidth="20632" windowHeight="14880" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
+    <workbookView xWindow="11250" yWindow="0" windowWidth="11257" windowHeight="14925" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="394">
   <si>
     <t>Name</t>
   </si>
@@ -910,9 +910,6 @@
     <t>South Lipayo Marine Sanctuary</t>
   </si>
   <si>
-    <t>Add more</t>
-  </si>
-  <si>
     <t>Villareal Lampirong Reserve</t>
   </si>
   <si>
@@ -962,6 +959,264 @@
   </si>
   <si>
     <t>70s</t>
+  </si>
+  <si>
+    <t>Calatagan Artificial Reef and Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Sta. Ana Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>no corals, mangroves or seagrass</t>
+  </si>
+  <si>
+    <t>Cathedral Rock Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Arthur's Rock Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Twin Rocks Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Batalang-Bato Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Puerto Galera Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Nalayag Point Fishery Refuge and Sanctuary</t>
+  </si>
+  <si>
+    <t>Pulong Bato Fishery Refuge and Sanctuary</t>
+  </si>
+  <si>
+    <t>Carenahan Fish Sanctuary and Fish Reserve</t>
+  </si>
+  <si>
+    <t>Tanagan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Cagayancillo Coastal Marine Area</t>
+  </si>
+  <si>
+    <t>San Miguel Island Marine Fishery Reserve</t>
+  </si>
+  <si>
+    <t>Bintuan Sangat Marine Park</t>
+  </si>
+  <si>
+    <t>Siete Pecados Marine Park</t>
+  </si>
+  <si>
+    <t>Cuaming Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Pucio Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>San Roque Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Seco Island Marine Reserve</t>
+  </si>
+  <si>
+    <t>Semirara Island Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Sibolo Island Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Taboc Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tingib Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tinigbas Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Union Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Bel-is Fish Santuary and Fish Reserve</t>
+  </si>
+  <si>
+    <t>Malay Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Motag Marine Santuary</t>
+  </si>
+  <si>
+    <t>Abiera Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Banawon Marine Santuary</t>
+  </si>
+  <si>
+    <t>Barusbus Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Batabat Coral Reef</t>
+  </si>
+  <si>
+    <t>Bulanao Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Gibongan Estuary</t>
+  </si>
+  <si>
+    <t>Iba and Poblacion Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Igdalaguit Municipal Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Jinalinan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Kalaparan Coral Reef Protected Area</t>
+  </si>
+  <si>
+    <t>Lamawan Pony Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Lawaan Sea Turtle Sanctuary</t>
+  </si>
+  <si>
+    <t>Mag-aba Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Malalison Island Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Mapatag Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Naba Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Nogas Island Marine Reserve</t>
+  </si>
+  <si>
+    <t>Pajo Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Patnongon Fish Refuge and Sanctuary</t>
+  </si>
+  <si>
+    <t>Patria Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Puntod, Sebaste Shoal MPA</t>
+  </si>
+  <si>
+    <t>Coral Reef</t>
+  </si>
+  <si>
+    <t>Buruanga, Aklan</t>
+  </si>
+  <si>
+    <t>Manocmanoc, Malay, Aklan</t>
+  </si>
+  <si>
+    <t>Motag, Malay, Aklan</t>
+  </si>
+  <si>
+    <t>Abiera, Sebaste, Antique</t>
+  </si>
+  <si>
+    <t>Hamtic, Antique</t>
+  </si>
+  <si>
+    <t>Libertad, Antique</t>
+  </si>
+  <si>
+    <t>Poblacion, Barbaza, Antique</t>
+  </si>
+  <si>
+    <t>Batonan Sur Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Batonan Sur, Culasi, Antique</t>
+  </si>
+  <si>
+    <t>Salvacion, Mariadona, Belison, Antique</t>
+  </si>
+  <si>
+    <t>Soft bottom, estuary</t>
+  </si>
+  <si>
+    <t>Iba and Poblacion, Anini-y, Antique</t>
+  </si>
+  <si>
+    <t>Igdalaguit, Tobias Fornier, Antique</t>
+  </si>
+  <si>
+    <t>Jinalinan, Bugasong, Antique</t>
+  </si>
+  <si>
+    <t>Igdanlog-Arobo, Tobias, Fornier, Antique</t>
+  </si>
+  <si>
+    <t>Funda-Dalipe, San Jose de Buenavista, Antique</t>
+  </si>
+  <si>
+    <t>Candajug Bagonbayan, Lawaan, Antique</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Mag-aba, Pandan, Antique</t>
+  </si>
+  <si>
+    <t>Culasi, Antique, Panay</t>
+  </si>
+  <si>
+    <t>Mapatag, Hamtic, Antique</t>
+  </si>
+  <si>
+    <t>Naba, Culasi, Antique</t>
+  </si>
+  <si>
+    <t>Anini-y, Antique</t>
+  </si>
+  <si>
+    <t>Coral Reef, seagrass bed, mangrove</t>
+  </si>
+  <si>
+    <t>Libertad, Antique, Panay</t>
+  </si>
+  <si>
+    <t>Igbararawan-Mabasa, Patnongon, Antique</t>
+  </si>
+  <si>
+    <t>Sand and Rocks</t>
+  </si>
+  <si>
+    <t>Patria, Pandan, Antique</t>
+  </si>
+  <si>
+    <t>Sebaste, Antique</t>
+  </si>
+  <si>
+    <t>Tibiao, Antique</t>
+  </si>
+  <si>
+    <t>Coral Reef, seagrass</t>
+  </si>
+  <si>
+    <t>Semirara, Caluya, Antique</t>
+  </si>
+  <si>
+    <t>Caluya, Antique</t>
+  </si>
+  <si>
+    <t>Coral Reef, seagrass, mangrove</t>
+  </si>
+  <si>
+    <t>Tingib, Pandan, Antique</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1011,11 +1266,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1055,6 +1321,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FBEB3-36E1-4443-9E87-5F90BEDC38FA}">
-  <dimension ref="A1:CE115"/>
+  <dimension ref="A1:CE165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1386,7 +1663,7 @@
     <col min="7" max="7" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1412,10 +1689,10 @@
         <v>200</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1441,10 +1718,10 @@
         <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1470,10 +1747,10 @@
         <v>193</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1499,13 +1776,10 @@
         <v>193</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1531,10 +1805,10 @@
         <v>193</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -1560,10 +1834,10 @@
         <v>193</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1589,10 +1863,10 @@
         <v>193</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>199</v>
       </c>
@@ -1618,10 +1892,10 @@
         <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>202</v>
       </c>
@@ -1647,10 +1921,10 @@
         <v>193</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -1676,10 +1950,10 @@
         <v>193</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -1705,10 +1979,10 @@
         <v>193</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -1734,10 +2008,10 @@
         <v>193</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -1763,10 +2037,10 @@
         <v>193</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>214</v>
       </c>
@@ -1792,10 +2066,10 @@
         <v>193</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -1821,10 +2095,10 @@
         <v>193</v>
       </c>
       <c r="I15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -1850,7 +2124,7 @@
         <v>193</v>
       </c>
       <c r="I16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1879,7 +2153,7 @@
         <v>193</v>
       </c>
       <c r="I17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1908,7 +2182,7 @@
         <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -1937,7 +2211,7 @@
         <v>193</v>
       </c>
       <c r="I19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -1966,7 +2240,7 @@
         <v>193</v>
       </c>
       <c r="I20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1995,7 +2269,7 @@
         <v>193</v>
       </c>
       <c r="I21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -2024,7 +2298,7 @@
         <v>193</v>
       </c>
       <c r="I22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -2053,7 +2327,7 @@
         <v>193</v>
       </c>
       <c r="I23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -2082,7 +2356,7 @@
         <v>193</v>
       </c>
       <c r="I24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -2111,7 +2385,7 @@
         <v>193</v>
       </c>
       <c r="I25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -2140,7 +2414,7 @@
         <v>193</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -2169,7 +2443,7 @@
         <v>193</v>
       </c>
       <c r="I27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -2198,7 +2472,7 @@
         <v>193</v>
       </c>
       <c r="I28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -2227,7 +2501,7 @@
         <v>193</v>
       </c>
       <c r="I29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -2256,7 +2530,7 @@
         <v>193</v>
       </c>
       <c r="I30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
@@ -2285,7 +2559,7 @@
         <v>193</v>
       </c>
       <c r="I31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -2314,7 +2588,7 @@
         <v>193</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
@@ -2343,7 +2617,7 @@
         <v>193</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
@@ -2372,7 +2646,7 @@
         <v>193</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
@@ -2401,7 +2675,7 @@
         <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
@@ -2430,7 +2704,7 @@
         <v>193</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
@@ -2459,7 +2733,7 @@
         <v>193</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
@@ -2488,7 +2762,7 @@
         <v>193</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
@@ -2517,7 +2791,7 @@
         <v>193</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
@@ -2546,7 +2820,7 @@
         <v>193</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
@@ -2575,7 +2849,7 @@
         <v>193</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
@@ -2604,7 +2878,7 @@
         <v>193</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
@@ -2633,7 +2907,7 @@
         <v>193</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
@@ -2662,7 +2936,7 @@
         <v>193</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
@@ -2691,7 +2965,7 @@
         <v>193</v>
       </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
@@ -2720,12 +2994,12 @@
         <v>193</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47">
         <v>9.3527000000000005</v>
@@ -2734,7 +3008,7 @@
         <v>122.81882</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>128</v>
@@ -2749,12 +3023,12 @@
         <v>193</v>
       </c>
       <c r="I47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B48">
         <v>9.8712999999999997</v>
@@ -2763,10 +3037,10 @@
         <v>122.37398</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F48" s="5">
         <v>2000</v>
@@ -2778,12 +3052,12 @@
         <v>193</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B49">
         <v>10.01614</v>
@@ -2792,11 +3066,11 @@
         <v>122.49629</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G49" s="2">
         <v>18.196000000000002</v>
@@ -2805,7 +3079,7 @@
         <v>193</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:83" x14ac:dyDescent="0.45">
@@ -2834,7 +3108,7 @@
         <v>194</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -2937,7 +3211,7 @@
         <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:83" x14ac:dyDescent="0.45">
@@ -2966,7 +3240,7 @@
         <v>194</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:83" x14ac:dyDescent="0.45">
@@ -2995,7 +3269,7 @@
         <v>194</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:83" x14ac:dyDescent="0.45">
@@ -3024,7 +3298,7 @@
         <v>194</v>
       </c>
       <c r="I54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:83" x14ac:dyDescent="0.45">
@@ -3053,12 +3327,12 @@
         <v>194</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" spans="1:83" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B56">
         <v>10.9696</v>
@@ -3082,7 +3356,7 @@
         <v>194</v>
       </c>
       <c r="I56" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:83" x14ac:dyDescent="0.45">
@@ -3111,7 +3385,7 @@
         <v>194</v>
       </c>
       <c r="I57" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:83" x14ac:dyDescent="0.45">
@@ -3140,7 +3414,7 @@
         <v>194</v>
       </c>
       <c r="I58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:83" x14ac:dyDescent="0.45">
@@ -3169,7 +3443,7 @@
         <v>194</v>
       </c>
       <c r="I59" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:83" x14ac:dyDescent="0.45">
@@ -3198,7 +3472,7 @@
         <v>194</v>
       </c>
       <c r="I60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:83" x14ac:dyDescent="0.45">
@@ -3227,7 +3501,7 @@
         <v>194</v>
       </c>
       <c r="I61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:83" x14ac:dyDescent="0.45">
@@ -3256,7 +3530,7 @@
         <v>194</v>
       </c>
       <c r="I62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:83" x14ac:dyDescent="0.45">
@@ -3285,7 +3559,7 @@
         <v>194</v>
       </c>
       <c r="I63" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:83" x14ac:dyDescent="0.45">
@@ -3314,7 +3588,7 @@
         <v>194</v>
       </c>
       <c r="I64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
@@ -3343,7 +3617,7 @@
         <v>194</v>
       </c>
       <c r="I65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
@@ -3372,12 +3646,12 @@
         <v>194</v>
       </c>
       <c r="I66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67">
         <v>9.9120000000000008</v>
@@ -3401,7 +3675,7 @@
         <v>194</v>
       </c>
       <c r="I67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
@@ -3430,7 +3704,7 @@
         <v>194</v>
       </c>
       <c r="I68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
@@ -3459,7 +3733,7 @@
         <v>194</v>
       </c>
       <c r="I69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
@@ -3488,7 +3762,7 @@
         <v>194</v>
       </c>
       <c r="I70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
@@ -3517,7 +3791,7 @@
         <v>194</v>
       </c>
       <c r="I71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
@@ -3546,7 +3820,7 @@
         <v>194</v>
       </c>
       <c r="I72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.45">
@@ -3575,7 +3849,7 @@
         <v>194</v>
       </c>
       <c r="I73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
@@ -3604,7 +3878,7 @@
         <v>194</v>
       </c>
       <c r="I74" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.45">
@@ -3633,7 +3907,7 @@
         <v>194</v>
       </c>
       <c r="I75" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
@@ -3662,7 +3936,7 @@
         <v>194</v>
       </c>
       <c r="I76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
@@ -3691,7 +3965,7 @@
         <v>194</v>
       </c>
       <c r="I77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
@@ -3720,7 +3994,7 @@
         <v>194</v>
       </c>
       <c r="I78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
@@ -3749,7 +4023,7 @@
         <v>194</v>
       </c>
       <c r="I79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
@@ -3778,7 +4052,7 @@
         <v>194</v>
       </c>
       <c r="I80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
@@ -3807,7 +4081,7 @@
         <v>194</v>
       </c>
       <c r="I81" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
@@ -3836,7 +4110,7 @@
         <v>194</v>
       </c>
       <c r="I82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
@@ -3865,7 +4139,7 @@
         <v>194</v>
       </c>
       <c r="I83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
@@ -3894,7 +4168,7 @@
         <v>194</v>
       </c>
       <c r="I84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
@@ -3923,7 +4197,7 @@
         <v>194</v>
       </c>
       <c r="I85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
@@ -3952,7 +4226,7 @@
         <v>194</v>
       </c>
       <c r="I86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
@@ -3981,7 +4255,7 @@
         <v>194</v>
       </c>
       <c r="I87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
@@ -4010,7 +4284,7 @@
         <v>194</v>
       </c>
       <c r="I88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">
@@ -4039,7 +4313,7 @@
         <v>194</v>
       </c>
       <c r="I89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
@@ -4068,7 +4342,7 @@
         <v>194</v>
       </c>
       <c r="I90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
@@ -4097,7 +4371,7 @@
         <v>194</v>
       </c>
       <c r="I91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
@@ -4126,7 +4400,7 @@
         <v>194</v>
       </c>
       <c r="I92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
@@ -4155,7 +4429,7 @@
         <v>194</v>
       </c>
       <c r="I93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.45">
@@ -4184,7 +4458,7 @@
         <v>194</v>
       </c>
       <c r="I94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.45">
@@ -4213,7 +4487,7 @@
         <v>194</v>
       </c>
       <c r="I95" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.45">
@@ -4242,7 +4516,7 @@
         <v>194</v>
       </c>
       <c r="I96" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.45">
@@ -4271,7 +4545,7 @@
         <v>194</v>
       </c>
       <c r="I97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.45">
@@ -4300,7 +4574,7 @@
         <v>194</v>
       </c>
       <c r="I98" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.45">
@@ -4329,7 +4603,7 @@
         <v>194</v>
       </c>
       <c r="I99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.45">
@@ -4358,7 +4632,7 @@
         <v>194</v>
       </c>
       <c r="I100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.45">
@@ -4387,7 +4661,7 @@
         <v>194</v>
       </c>
       <c r="I101" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.45">
@@ -4416,7 +4690,7 @@
         <v>194</v>
       </c>
       <c r="I102" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.45">
@@ -4445,7 +4719,7 @@
         <v>194</v>
       </c>
       <c r="I103" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.45">
@@ -4474,7 +4748,7 @@
         <v>194</v>
       </c>
       <c r="I104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
@@ -4503,7 +4777,7 @@
         <v>194</v>
       </c>
       <c r="I105" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
@@ -4532,7 +4806,7 @@
         <v>194</v>
       </c>
       <c r="I106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
@@ -4561,7 +4835,7 @@
         <v>194</v>
       </c>
       <c r="I107" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
@@ -4590,7 +4864,7 @@
         <v>194</v>
       </c>
       <c r="I108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.45">
@@ -4619,7 +4893,7 @@
         <v>194</v>
       </c>
       <c r="I109" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.45">
@@ -4648,7 +4922,7 @@
         <v>194</v>
       </c>
       <c r="I110" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.45">
@@ -4677,7 +4951,7 @@
         <v>194</v>
       </c>
       <c r="I111" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.45">
@@ -4706,7 +4980,7 @@
         <v>194</v>
       </c>
       <c r="I112" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.45">
@@ -4735,7 +5009,7 @@
         <v>194</v>
       </c>
       <c r="I113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
@@ -4764,36 +5038,1243 @@
         <v>194</v>
       </c>
       <c r="I114" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="B115" s="19">
+        <v>11.868880000000001</v>
+      </c>
+      <c r="C115" s="19">
+        <v>121.28610999999999</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="F115" s="20">
+        <v>1975</v>
+      </c>
+      <c r="G115" s="21">
+        <v>600</v>
+      </c>
+      <c r="H115" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="I115" s="19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="B115">
-        <v>11.868880000000001</v>
-      </c>
-      <c r="C115">
-        <v>121.28610999999999</v>
-      </c>
-      <c r="D115" t="s">
-        <v>303</v>
-      </c>
-      <c r="E115" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>308</v>
+      </c>
+      <c r="B116">
+        <v>13.84</v>
+      </c>
+      <c r="C116">
+        <v>120.7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G116" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>309</v>
+      </c>
+      <c r="B117">
+        <v>13.81</v>
+      </c>
+      <c r="C117">
+        <v>120.67</v>
+      </c>
+      <c r="E117" t="s">
+        <v>310</v>
+      </c>
+      <c r="F117" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G117" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118">
+        <v>13.73</v>
+      </c>
+      <c r="C118">
+        <v>120.87</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="5">
+        <v>1991</v>
+      </c>
+      <c r="G118" s="17">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119">
+        <v>13.71</v>
+      </c>
+      <c r="C119">
+        <v>120.87</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="5">
+        <v>1991</v>
+      </c>
+      <c r="G119" s="17">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120">
+        <v>13.69</v>
+      </c>
+      <c r="C120">
+        <v>120.89</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="5">
+        <v>1991</v>
+      </c>
+      <c r="G120" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121">
+        <v>13.66</v>
+      </c>
+      <c r="C121">
+        <v>120.89</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G121" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122">
+        <v>13.49</v>
+      </c>
+      <c r="C122">
+        <v>120.99</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="5">
+        <v>2005</v>
+      </c>
+      <c r="G122" s="17">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123">
+        <v>13.56</v>
+      </c>
+      <c r="C123">
+        <v>121.04</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G123" s="17">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>317</v>
+      </c>
+      <c r="B124">
+        <v>13.53</v>
+      </c>
+      <c r="C124">
+        <v>121.1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G124" s="17">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>318</v>
+      </c>
+      <c r="B125">
+        <v>13.93</v>
+      </c>
+      <c r="C125">
+        <v>120.76</v>
+      </c>
+      <c r="E125" t="s">
+        <v>310</v>
+      </c>
+      <c r="F125" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G125" s="17">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>319</v>
+      </c>
+      <c r="B126">
+        <v>13.807</v>
+      </c>
+      <c r="C126">
+        <v>120.66800000000001</v>
+      </c>
+      <c r="E126" t="s">
+        <v>310</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G126" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127">
+        <v>9.3859999999999992</v>
+      </c>
+      <c r="C127">
+        <v>120.759</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="5">
+        <v>2016</v>
+      </c>
+      <c r="G127" s="17">
+        <v>1013340</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>321</v>
+      </c>
+      <c r="B128">
+        <v>13.41</v>
+      </c>
+      <c r="C128">
+        <v>123.77</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G128" s="17">
+        <v>203.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129">
+        <v>11.99</v>
+      </c>
+      <c r="C129">
+        <v>120.07</v>
+      </c>
+      <c r="E129" t="s">
+        <v>310</v>
+      </c>
+      <c r="F129" s="5">
+        <v>2004</v>
+      </c>
+      <c r="G129" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>323</v>
+      </c>
+      <c r="B130">
+        <v>11.99</v>
+      </c>
+      <c r="C130">
+        <v>120.23</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="5">
+        <v>2005</v>
+      </c>
+      <c r="G130" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A131" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B131" s="13">
+        <v>10.11</v>
+      </c>
+      <c r="C131" s="13">
+        <v>123.98</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F131" s="14">
+        <v>1999</v>
+      </c>
+      <c r="G131" s="14">
+        <v>14.25</v>
+      </c>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="16">
+        <v>11.75177</v>
+      </c>
+      <c r="C132" s="16">
+        <v>121.84847000000001</v>
+      </c>
+      <c r="D132" t="s">
+        <v>364</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F132" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G132" s="5">
+        <v>3</v>
+      </c>
+      <c r="H132" t="s">
         <v>304</v>
       </c>
-      <c r="F115" s="5">
-        <v>1975</v>
-      </c>
-      <c r="G115" s="2">
-        <v>600</v>
-      </c>
-      <c r="H115" t="s">
-        <v>305</v>
-      </c>
-      <c r="I115" t="s">
-        <v>308</v>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" s="16">
+        <v>11.735429999999999</v>
+      </c>
+      <c r="C133" s="16">
+        <v>121.98383</v>
+      </c>
+      <c r="D133" t="s">
+        <v>364</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F133" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G133" s="5">
+        <v>2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A134" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="16">
+        <v>11.282220000000001</v>
+      </c>
+      <c r="C134" s="16">
+        <v>122.03666</v>
+      </c>
+      <c r="D134" t="s">
+        <v>388</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F134" s="5">
+        <v>1993</v>
+      </c>
+      <c r="G134" s="2">
+        <v>50</v>
+      </c>
+      <c r="H134" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A135" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B135" s="16">
+        <v>12.074159999999999</v>
+      </c>
+      <c r="C135" s="16">
+        <v>121.35361</v>
+      </c>
+      <c r="D135" t="s">
+        <v>390</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F135" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G135" s="2">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B136" s="16">
+        <v>12.10083</v>
+      </c>
+      <c r="C136" s="16">
+        <v>121.57888</v>
+      </c>
+      <c r="D136" t="s">
+        <v>391</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F136" s="5">
+        <v>1994</v>
+      </c>
+      <c r="G136" s="2">
+        <v>20</v>
+      </c>
+      <c r="H136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B137" s="16">
+        <v>11.75193</v>
+      </c>
+      <c r="C137" s="16">
+        <v>121.86843</v>
+      </c>
+      <c r="D137" t="s">
+        <v>364</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F137" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G137" s="2">
+        <v>3</v>
+      </c>
+      <c r="H137" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B138" s="16">
+        <v>11.730919999999999</v>
+      </c>
+      <c r="C138" s="16">
+        <v>122.04552</v>
+      </c>
+      <c r="D138" t="s">
+        <v>393</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F138" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G138" s="2">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A139" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B139" s="16">
+        <v>11.756159999999999</v>
+      </c>
+      <c r="C139" s="16">
+        <v>121.85239</v>
+      </c>
+      <c r="D139" t="s">
+        <v>364</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F139" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G139" s="2">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A140" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B140" s="16">
+        <v>11.755940000000001</v>
+      </c>
+      <c r="C140" s="16">
+        <v>121.88564</v>
+      </c>
+      <c r="D140" t="s">
+        <v>364</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F140" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H140" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A141" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141">
+        <v>11.885</v>
+      </c>
+      <c r="C141">
+        <v>121.88083</v>
+      </c>
+      <c r="D141" t="s">
+        <v>359</v>
+      </c>
+      <c r="E141" t="s">
+        <v>358</v>
+      </c>
+      <c r="F141" s="5">
+        <v>2004</v>
+      </c>
+      <c r="G141" s="2">
+        <v>25</v>
+      </c>
+      <c r="H141" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A142" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B142">
+        <v>11.938000000000001</v>
+      </c>
+      <c r="C142">
+        <v>122.934</v>
+      </c>
+      <c r="D142" t="s">
+        <v>360</v>
+      </c>
+      <c r="E142" t="s">
+        <v>358</v>
+      </c>
+      <c r="F142" s="5">
+        <v>2001</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H142" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A143" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B143">
+        <v>11.91211</v>
+      </c>
+      <c r="C143">
+        <v>121.89852</v>
+      </c>
+      <c r="D143" t="s">
+        <v>361</v>
+      </c>
+      <c r="E143" t="s">
+        <v>358</v>
+      </c>
+      <c r="F143" s="5">
+        <v>2005</v>
+      </c>
+      <c r="G143" s="2">
+        <v>4</v>
+      </c>
+      <c r="H143" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A144" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144">
+        <v>11.5791</v>
+      </c>
+      <c r="C144">
+        <v>122.0865</v>
+      </c>
+      <c r="D144" t="s">
+        <v>362</v>
+      </c>
+      <c r="E144" t="s">
+        <v>358</v>
+      </c>
+      <c r="F144" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G144" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="H144" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A145" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145">
+        <v>10.70246</v>
+      </c>
+      <c r="C145">
+        <v>121.96852</v>
+      </c>
+      <c r="D145" t="s">
+        <v>363</v>
+      </c>
+      <c r="E145" t="s">
+        <v>358</v>
+      </c>
+      <c r="F145" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G145" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H145" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146">
+        <v>11.76277</v>
+      </c>
+      <c r="C146">
+        <v>121.92277</v>
+      </c>
+      <c r="D146" t="s">
+        <v>364</v>
+      </c>
+      <c r="E146" t="s">
+        <v>358</v>
+      </c>
+      <c r="F146" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1</v>
+      </c>
+      <c r="H146" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B147">
+        <v>11.195259999999999</v>
+      </c>
+      <c r="C147">
+        <v>122.02583</v>
+      </c>
+      <c r="D147" t="s">
+        <v>365</v>
+      </c>
+      <c r="E147" t="s">
+        <v>358</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1997</v>
+      </c>
+      <c r="G147" s="2">
+        <v>33.47</v>
+      </c>
+      <c r="H147" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="B148">
+        <v>11.36768</v>
+      </c>
+      <c r="C148">
+        <v>122.06059999999999</v>
+      </c>
+      <c r="D148" t="s">
+        <v>367</v>
+      </c>
+      <c r="E148" t="s">
+        <v>358</v>
+      </c>
+      <c r="F148" s="5">
+        <v>1996</v>
+      </c>
+      <c r="G148" s="2">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="H148" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A149" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B149">
+        <v>11.750299999999999</v>
+      </c>
+      <c r="C149">
+        <v>121.95218</v>
+      </c>
+      <c r="D149" t="s">
+        <v>364</v>
+      </c>
+      <c r="E149" t="s">
+        <v>358</v>
+      </c>
+      <c r="F149" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H149" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A150" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B150">
+        <v>10.82433</v>
+      </c>
+      <c r="C150">
+        <v>121.93859</v>
+      </c>
+      <c r="D150" t="s">
+        <v>368</v>
+      </c>
+      <c r="E150" t="s">
+        <v>369</v>
+      </c>
+      <c r="F150" s="5">
+        <v>1992</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H150" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A151" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B151">
+        <v>10.434060000000001</v>
+      </c>
+      <c r="C151">
+        <v>121.99541000000001</v>
+      </c>
+      <c r="D151" t="s">
+        <v>370</v>
+      </c>
+      <c r="E151" t="s">
+        <v>358</v>
+      </c>
+      <c r="F151" s="5">
+        <v>2001</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H151" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A152" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B152">
+        <v>11.729799999999999</v>
+      </c>
+      <c r="C152">
+        <v>122.05392999999999</v>
+      </c>
+      <c r="D152" t="s">
+        <v>371</v>
+      </c>
+      <c r="E152" t="s">
+        <v>358</v>
+      </c>
+      <c r="F152" s="5">
+        <v>1997</v>
+      </c>
+      <c r="G152" s="2">
+        <v>2</v>
+      </c>
+      <c r="H152" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A153" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B153">
+        <v>11.03919</v>
+      </c>
+      <c r="C153">
+        <v>122.04707999999999</v>
+      </c>
+      <c r="D153" t="s">
+        <v>372</v>
+      </c>
+      <c r="E153" t="s">
+        <v>358</v>
+      </c>
+      <c r="F153" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G153" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="H153" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A154" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B154">
+        <v>10.527419999999999</v>
+      </c>
+      <c r="C154">
+        <v>121.94182499999999</v>
+      </c>
+      <c r="D154" t="s">
+        <v>373</v>
+      </c>
+      <c r="E154" t="s">
+        <v>358</v>
+      </c>
+      <c r="F154" s="5">
+        <v>2002</v>
+      </c>
+      <c r="G154" s="2">
+        <v>60</v>
+      </c>
+      <c r="H154" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A155" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B155">
+        <v>10.75583</v>
+      </c>
+      <c r="C155">
+        <v>121.9225</v>
+      </c>
+      <c r="D155" t="s">
+        <v>374</v>
+      </c>
+      <c r="E155" t="s">
+        <v>358</v>
+      </c>
+      <c r="F155" s="5">
+        <v>2003</v>
+      </c>
+      <c r="G155" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H155" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A156" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B156">
+        <v>11.148400000000001</v>
+      </c>
+      <c r="C156">
+        <v>122.02579</v>
+      </c>
+      <c r="D156" t="s">
+        <v>375</v>
+      </c>
+      <c r="E156" t="s">
+        <v>376</v>
+      </c>
+      <c r="F156" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G156" s="2">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A157" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B157">
+        <v>11.730919999999999</v>
+      </c>
+      <c r="C157">
+        <v>122.04552</v>
+      </c>
+      <c r="D157" t="s">
+        <v>377</v>
+      </c>
+      <c r="E157" t="s">
+        <v>358</v>
+      </c>
+      <c r="F157" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G157" s="2">
+        <v>2</v>
+      </c>
+      <c r="H157" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A158" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B158">
+        <v>11.400550000000001</v>
+      </c>
+      <c r="C158">
+        <v>122.01472</v>
+      </c>
+      <c r="D158" t="s">
+        <v>378</v>
+      </c>
+      <c r="E158" t="s">
+        <v>358</v>
+      </c>
+      <c r="F158" s="5">
+        <v>1991</v>
+      </c>
+      <c r="G158" s="2">
+        <v>28</v>
+      </c>
+      <c r="H158" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A159" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159">
+        <v>10.706950000000001</v>
+      </c>
+      <c r="C159">
+        <v>121.97360999999999</v>
+      </c>
+      <c r="D159" t="s">
+        <v>379</v>
+      </c>
+      <c r="E159" t="s">
+        <v>358</v>
+      </c>
+      <c r="F159" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G159" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H159" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A160" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B160">
+        <v>11.473549999999999</v>
+      </c>
+      <c r="C160">
+        <v>122.06749000000001</v>
+      </c>
+      <c r="D160" t="s">
+        <v>380</v>
+      </c>
+      <c r="E160" t="s">
+        <v>358</v>
+      </c>
+      <c r="F160" s="5">
+        <v>1997</v>
+      </c>
+      <c r="G160" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="H160" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A161" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B161">
+        <v>10.419566</v>
+      </c>
+      <c r="C161">
+        <v>121.923891</v>
+      </c>
+      <c r="D161" t="s">
+        <v>381</v>
+      </c>
+      <c r="E161" t="s">
+        <v>382</v>
+      </c>
+      <c r="F161" s="5">
+        <v>1993</v>
+      </c>
+      <c r="G161" s="2">
+        <v>35</v>
+      </c>
+      <c r="H161" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A162" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B162">
+        <v>11.75033</v>
+      </c>
+      <c r="C162">
+        <v>121.96899999999999</v>
+      </c>
+      <c r="D162" t="s">
+        <v>383</v>
+      </c>
+      <c r="E162" t="s">
+        <v>358</v>
+      </c>
+      <c r="F162" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G162" s="2">
+        <v>2</v>
+      </c>
+      <c r="H162" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A163" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B163">
+        <v>10.98333</v>
+      </c>
+      <c r="C163">
+        <v>122.01666</v>
+      </c>
+      <c r="D163" t="s">
+        <v>384</v>
+      </c>
+      <c r="E163" t="s">
+        <v>385</v>
+      </c>
+      <c r="F163" s="5">
+        <v>2005</v>
+      </c>
+      <c r="G163" s="2">
+        <v>5</v>
+      </c>
+      <c r="H163" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A164" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B164">
+        <v>11.73</v>
+      </c>
+      <c r="C164">
+        <v>122.0419</v>
+      </c>
+      <c r="D164" t="s">
+        <v>386</v>
+      </c>
+      <c r="E164" t="s">
+        <v>358</v>
+      </c>
+      <c r="F164" s="5">
+        <v>1997</v>
+      </c>
+      <c r="G164" s="2">
+        <v>3</v>
+      </c>
+      <c r="H164" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A165" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B165">
+        <v>11.602669000000001</v>
+      </c>
+      <c r="C165">
+        <v>122.045616</v>
+      </c>
+      <c r="D165" t="s">
+        <v>387</v>
+      </c>
+      <c r="E165" t="s">
+        <v>358</v>
+      </c>
+      <c r="F165" s="5">
+        <v>1998</v>
+      </c>
+      <c r="G165" s="2">
+        <v>393.875</v>
+      </c>
+      <c r="H165" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/data/MPA_coordinates_no_deg.xlsx
+++ b/data/MPA_coordinates_no_deg.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebecca Ruiz\Documents\fish_biodiversity\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\fish_biodiversity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76802014-1151-4918-A6A6-D718029D77B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC47192D-27E0-43D9-87DC-6348B581E341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="0" windowWidth="11257" windowHeight="14925" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
+    <workbookView xWindow="42180" yWindow="-4350" windowWidth="30375" windowHeight="46440" xr2:uid="{BBACE741-DACB-40CF-B694-1352AC5DE951}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CE$165</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,8 +37,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8ED04F3E-F3FE-4FA5-94B7-21DC4F1704E0}</author>
+    <author>tc={591F8D3D-128C-4A04-872B-9A68A6F9FC1F}</author>
+  </authors>
+  <commentList>
+    <comment ref="G140" authorId="0" shapeId="0" xr:uid="{8ED04F3E-F3FE-4FA5-94B7-21DC4F1704E0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    http://www.database.mpasupportnetwork.com/</t>
+      </text>
+    </comment>
+    <comment ref="G149" authorId="1" shapeId="0" xr:uid="{591F8D3D-128C-4A04-872B-9A68A6F9FC1F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    http://www.database.mpasupportnetwork.com/</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="511">
   <si>
     <t>Name</t>
   </si>
@@ -595,9 +625,6 @@
     <t xml:space="preserve">Coral reef, seagrass, algal bed, deep water </t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Libertad Marine Sanctuary</t>
   </si>
   <si>
@@ -1217,13 +1244,367 @@
   </si>
   <si>
     <t>Tingib, Pandan, Antique</t>
+  </si>
+  <si>
+    <t>Batangas</t>
+  </si>
+  <si>
+    <t>Catanduanes</t>
+  </si>
+  <si>
+    <t>Siquijor Island Tourist Zone and Marine Reserve</t>
+  </si>
+  <si>
+    <t>Nonoc Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Banban-Luyang Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Maite Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Paliton Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Talayong Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Napayong Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Tubod Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Lalag-Bato Marine Reserve</t>
+  </si>
+  <si>
+    <t>Luyang Mangrove Reserve</t>
+  </si>
+  <si>
+    <t>Cangmunag Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Taculing - Canmalalag Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Sandugan Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Caticugan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Minalulan Shell and Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Siquijor</t>
+  </si>
+  <si>
+    <t>Olang Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Bogo Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Candaping B Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Tulapos Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Pamilacan Coral Garden</t>
+  </si>
+  <si>
+    <t>Pamilacan Island Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Bohol</t>
+  </si>
+  <si>
+    <t>Balicasag Island Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Talibon Group of Islands Protected Landscape</t>
+  </si>
+  <si>
+    <t>Alburquerque-Loay-Loboc Protected Landscape and Seascape</t>
+  </si>
+  <si>
+    <t>Panglao Island Protected Seascape</t>
+  </si>
+  <si>
+    <t>Sinandigan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Lumislis Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Islands of Catiil, Colangaman, Lomislis, Tangangdio, Tintiman and the Islet of Pamasuan</t>
+  </si>
+  <si>
+    <t>Batasan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Pandan, Matabao, and Panaytayon Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Villa Milagrosa Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Maomawan Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Lipata II Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Bilang-Bilangan West (Daku)</t>
+  </si>
+  <si>
+    <t>Humay-humay Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Badiang Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Sta. Cruz Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Lapinig Island Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Mahanay Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Matabao Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Aguining Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>San Isidro Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Eastern Cabul-an Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Banacon Island Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Libaong (Handumon) Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Western Cabul-an Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Asinan Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Bilang-Bilangan East Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tanghaligue Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Lomboy-Kahayag Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Pinamgo Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tulang Marine Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Sibukwan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Cayam-Malinao Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Mantatao Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Nasingin Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Basiao Point to Kasag Point at Lapinig</t>
+  </si>
+  <si>
+    <t>Linawan Municipal Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Ubay Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Taug-Tiguis Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Lumayag Marine Park</t>
+  </si>
+  <si>
+    <t>Tubod Mar Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Baud Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Butan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Jandayan Norte Fish Refuge and Sanctuary</t>
+  </si>
+  <si>
+    <t>Tayong Occidental Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Majigpit Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Cabantian Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Bool Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Liboron Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Langkis Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Hingotanan East Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Mawi Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Cagasawan Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Virgen Marine Park and Sanctuary</t>
+  </si>
+  <si>
+    <t>Hingotanan West Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Malingin Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Jagoliao Seagrass Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Mandawa Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Campao Occidental Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Suba Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Pandanon Fish Refuge and Sanctuary</t>
+  </si>
+  <si>
+    <t>Cataban Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Centro Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Budlanan Island Wilderness Area</t>
+  </si>
+  <si>
+    <t>Panga Wilderness Area</t>
+  </si>
+  <si>
+    <t>Bantigue Island Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Magtongtong Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Pulang Yuta Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Basdio Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tayong Oriental Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Pasil (Kawasihan) Reef Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Talisay Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Busalian Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Cantagay Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Pondol Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Inanuran Islet Wilderness Area</t>
+  </si>
+  <si>
+    <t>Song-On Fish Refuge and Sanctuary</t>
+  </si>
+  <si>
+    <t>Nahawan Seagrass Sanctuary</t>
+  </si>
+  <si>
+    <t>Anas Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>Tabalong Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Manga Fish Sanctuary</t>
+  </si>
+  <si>
+    <t>San Antonio Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Sagasa Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Cabulijan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>U-og Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Hambongan Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Guinacot Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Tangnan Marine Sanctuary</t>
+  </si>
+  <si>
+    <t>Gaus II Marine sanctuary</t>
+  </si>
+  <si>
+    <t>Tangaran Seagrass and Shell Garden</t>
+  </si>
+  <si>
+    <t>Mindanao</t>
+  </si>
+  <si>
+    <t>Selinog Island Protected Landscape and Seascape</t>
+  </si>
+  <si>
+    <t>Aliguay Island Protected Landscape and Seascape</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,13 +1612,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1281,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1332,6 +1727,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,6 +1758,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Bird, Chris" id="{DC4CB9F2-D3C4-4C6F-9BFA-44F4E350AC8C}" userId="Bird, Chris" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1644,26 +2061,38 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G140" dT="2023-02-05T02:09:01.25" personId="{DC4CB9F2-D3C4-4C6F-9BFA-44F4E350AC8C}" id="{8ED04F3E-F3FE-4FA5-94B7-21DC4F1704E0}">
+    <text>http://www.database.mpasupportnetwork.com/</text>
+  </threadedComment>
+  <threadedComment ref="G149" dT="2023-02-05T02:09:01.25" personId="{DC4CB9F2-D3C4-4C6F-9BFA-44F4E350AC8C}" id="{591F8D3D-128C-4A04-872B-9A68A6F9FC1F}">
+    <text>http://www.database.mpasupportnetwork.com/</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FBEB3-36E1-4443-9E87-5F90BEDC38FA}">
-  <dimension ref="A1:CE165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20FBEB3-36E1-4443-9E87-5F90BEDC38FA}">
+  <dimension ref="A1:CE279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.265625" customWidth="1"/>
-    <col min="2" max="2" width="11.1328125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1328125" customWidth="1"/>
-    <col min="6" max="6" width="14.46484375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="45.05859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1171875" customWidth="1"/>
+    <col min="3" max="3" width="11.64453125" customWidth="1"/>
+    <col min="4" max="4" width="13.64453125" customWidth="1"/>
+    <col min="5" max="5" width="14.1171875" customWidth="1"/>
+    <col min="6" max="6" width="14.46875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.05859375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -1686,13 +2115,13 @@
         <v>125</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1715,13 +2144,13 @@
         <v>7.14</v>
       </c>
       <c r="H2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1744,13 +2173,13 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1773,13 +2202,13 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1802,13 +2231,13 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -1825,19 +2254,19 @@
         <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1848,27 +2277,27 @@
         <v>123.15245</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="2">
         <v>6.9</v>
       </c>
       <c r="H7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="6">
         <v>9.9317899999999995</v>
@@ -1877,7 +2306,7 @@
         <v>123.18188000000001</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>79</v>
@@ -1889,15 +2318,15 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9">
         <v>9.8213299999999997</v>
@@ -1906,7 +2335,7 @@
         <v>123.14491</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
@@ -1918,15 +2347,15 @@
         <v>14.15</v>
       </c>
       <c r="H9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10">
         <v>9.6555700000000009</v>
@@ -1935,7 +2364,7 @@
         <v>123.15034</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
         <v>97</v>
@@ -1947,15 +2376,15 @@
         <v>14.5</v>
       </c>
       <c r="H10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11">
         <v>10.230829999999999</v>
@@ -1964,10 +2393,10 @@
         <v>123.31086999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F11" s="5">
         <v>1996</v>
@@ -1976,15 +2405,15 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12">
         <v>9.8909400000000005</v>
@@ -1993,7 +2422,7 @@
         <v>123.14998</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
         <v>97</v>
@@ -2005,15 +2434,15 @@
         <v>27.86</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13">
         <v>9.72593</v>
@@ -2022,27 +2451,27 @@
         <v>123.15383</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="2">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14">
         <v>9.1911299999999994</v>
@@ -2051,7 +2480,7 @@
         <v>123.28395</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -2063,15 +2492,15 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15">
         <v>9.7253000000000007</v>
@@ -2080,7 +2509,7 @@
         <v>123.15383</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -2092,15 +2521,15 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16">
         <v>9.4308599999999991</v>
@@ -2109,10 +2538,10 @@
         <v>123.23586</v>
       </c>
       <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
         <v>219</v>
-      </c>
-      <c r="E16" t="s">
-        <v>220</v>
       </c>
       <c r="F16" s="5">
         <v>1994</v>
@@ -2121,15 +2550,15 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>9.4934999999999992</v>
@@ -2138,10 +2567,10 @@
         <v>123.1923</v>
       </c>
       <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
         <v>222</v>
-      </c>
-      <c r="E17" t="s">
-        <v>223</v>
       </c>
       <c r="F17" s="5">
         <v>1998</v>
@@ -2150,15 +2579,15 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18">
         <v>10.026109999999999</v>
@@ -2167,7 +2596,7 @@
         <v>123.23171000000001</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -2179,15 +2608,15 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19">
         <v>9.5979399999999995</v>
@@ -2196,7 +2625,7 @@
         <v>123.15707999999999</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -2208,15 +2637,15 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I19" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20">
         <v>9.5775199999999998</v>
@@ -2225,10 +2654,10 @@
         <v>123.15466000000001</v>
       </c>
       <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" t="s">
         <v>229</v>
-      </c>
-      <c r="E20" t="s">
-        <v>230</v>
       </c>
       <c r="F20" s="5">
         <v>1986</v>
@@ -2237,15 +2666,15 @@
         <v>250</v>
       </c>
       <c r="H20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21">
         <v>9.8431099999999994</v>
@@ -2254,10 +2683,10 @@
         <v>123.143</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F21" s="5">
         <v>2005</v>
@@ -2266,15 +2695,15 @@
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22">
         <v>9.4471799999999995</v>
@@ -2283,7 +2712,7 @@
         <v>123.23873</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -2295,15 +2724,15 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I22" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23">
         <v>9.8050300000000004</v>
@@ -2312,7 +2741,7 @@
         <v>123.14216</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>13</v>
@@ -2324,15 +2753,15 @@
         <v>15.14</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24">
         <v>9.7798400000000001</v>
@@ -2341,7 +2770,7 @@
         <v>123.15055</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>7</v>
@@ -2353,15 +2782,15 @@
         <v>25.3</v>
       </c>
       <c r="H24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25">
         <v>9.3340599999999991</v>
@@ -2370,10 +2799,10 @@
         <v>123.31151</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F25" s="5">
         <v>1999</v>
@@ -2382,15 +2811,15 @@
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26">
         <v>9.0747</v>
@@ -2399,7 +2828,7 @@
         <v>123.16003000000001</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>97</v>
@@ -2411,15 +2840,15 @@
         <v>6.4</v>
       </c>
       <c r="H26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I26" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27">
         <v>9.0581099999999992</v>
@@ -2428,7 +2857,7 @@
         <v>123.13571</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>7</v>
@@ -2440,15 +2869,15 @@
         <v>0.33</v>
       </c>
       <c r="H27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28">
         <v>9.0730400000000007</v>
@@ -2457,27 +2886,27 @@
         <v>123.27119999999999</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="G28" s="2">
         <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I28" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B29">
         <v>9.1618700000000004</v>
@@ -2486,7 +2915,7 @@
         <v>123.24294999999999</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>7</v>
@@ -2498,15 +2927,15 @@
         <v>4.21</v>
       </c>
       <c r="H29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30">
         <v>9.2821099999999994</v>
@@ -2515,10 +2944,10 @@
         <v>123.30355</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F30" s="5">
         <v>2001</v>
@@ -2527,15 +2956,15 @@
         <v>76</v>
       </c>
       <c r="H30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I30" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31">
         <v>9.1012500000000003</v>
@@ -2544,7 +2973,7 @@
         <v>123.20399999999999</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>7</v>
@@ -2556,15 +2985,15 @@
         <v>7.8</v>
       </c>
       <c r="H31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B32">
         <v>9.0658100000000008</v>
@@ -2573,7 +3002,7 @@
         <v>123.14201</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>97</v>
@@ -2585,15 +3014,15 @@
         <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33">
         <v>9.3790800000000001</v>
@@ -2602,7 +3031,7 @@
         <v>122.69677</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>7</v>
@@ -2614,15 +3043,15 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I33" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B34">
         <v>9.2138000000000009</v>
@@ -2631,7 +3060,7 @@
         <v>123.28682999999999</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>7</v>
@@ -2643,15 +3072,15 @@
         <v>7.42</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I34" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35">
         <v>9.2410999999999994</v>
@@ -2660,7 +3089,7 @@
         <v>123.295</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>7</v>
@@ -2672,15 +3101,15 @@
         <v>5.97</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36">
         <v>9.3558800000000009</v>
@@ -2689,7 +3118,7 @@
         <v>123.29536</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>7</v>
@@ -2701,15 +3130,15 @@
         <v>6</v>
       </c>
       <c r="H36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37">
         <v>9.0677900000000005</v>
@@ -2718,27 +3147,27 @@
         <v>123.14963</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G37" s="2">
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38">
         <v>9.1416500000000003</v>
@@ -2747,7 +3176,7 @@
         <v>123.23220000000001</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>97</v>
@@ -2759,15 +3188,15 @@
         <v>7.1289999999999996</v>
       </c>
       <c r="H38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B39">
         <v>9.3671500000000005</v>
@@ -2776,10 +3205,10 @@
         <v>122.76948</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F39" s="5">
         <v>2003</v>
@@ -2788,15 +3217,15 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40">
         <v>9.1781799999999993</v>
@@ -2805,27 +3234,27 @@
         <v>123.25624000000001</v>
       </c>
       <c r="D40" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="G40" s="2">
         <v>6</v>
       </c>
       <c r="H40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41">
         <v>9.1671300000000002</v>
@@ -2834,7 +3263,7 @@
         <v>123.24733999999999</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>7</v>
@@ -2846,15 +3275,15 @@
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B42">
         <v>9.2763899999999992</v>
@@ -2863,27 +3292,27 @@
         <v>123.32277999999999</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>79</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G42" s="2">
         <v>2.21</v>
       </c>
       <c r="H42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43">
         <v>9.3738299999999999</v>
@@ -2892,7 +3321,7 @@
         <v>122.72797</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>128</v>
@@ -2904,15 +3333,15 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I43" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B44">
         <v>9.1883199999999992</v>
@@ -2921,10 +3350,10 @@
         <v>123.25838</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F44" s="5">
         <v>2000</v>
@@ -2933,15 +3362,15 @@
         <v>9.1778999999999993</v>
       </c>
       <c r="H44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B45">
         <v>9.0419699999999992</v>
@@ -2950,7 +3379,7 @@
         <v>123.00922</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>7</v>
@@ -2962,15 +3391,15 @@
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I45" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B46">
         <v>9.1911299999999994</v>
@@ -2979,7 +3408,7 @@
         <v>123.27294000000001</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>7</v>
@@ -2991,15 +3420,15 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I46" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B47">
         <v>9.3527000000000005</v>
@@ -3008,7 +3437,7 @@
         <v>122.81882</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>128</v>
@@ -3020,15 +3449,15 @@
         <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I47" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48">
         <v>9.8712999999999997</v>
@@ -3037,10 +3466,10 @@
         <v>122.37398</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F48" s="5">
         <v>2000</v>
@@ -3049,15 +3478,15 @@
         <v>102.4</v>
       </c>
       <c r="H48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I48" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49">
         <v>10.01614</v>
@@ -3066,23 +3495,23 @@
         <v>122.49629</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G49" s="2">
         <v>18.196000000000002</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I49" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A50" s="9" t="s">
         <v>16</v>
       </c>
@@ -3105,10 +3534,10 @@
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I50" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3185,7 +3614,7 @@
       <c r="CD50" s="9"/>
       <c r="CE50" s="9"/>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -3208,13 +3637,13 @@
         <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I51" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -3237,13 +3666,13 @@
         <v>28</v>
       </c>
       <c r="H52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I52" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -3266,13 +3695,13 @@
         <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I53" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -3295,13 +3724,13 @@
         <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I54" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -3324,15 +3753,15 @@
         <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I55" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B56">
         <v>10.9696</v>
@@ -3353,13 +3782,13 @@
         <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I56" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -3382,13 +3811,13 @@
         <v>15.48</v>
       </c>
       <c r="H57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I57" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -3411,13 +3840,13 @@
         <v>40</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I58" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -3440,13 +3869,13 @@
         <v>14.89</v>
       </c>
       <c r="H59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I59" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -3469,13 +3898,13 @@
         <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I60" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -3498,13 +3927,13 @@
         <v>18.5</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I61" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -3527,13 +3956,13 @@
         <v>83</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I62" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -3556,13 +3985,13 @@
         <v>19.8</v>
       </c>
       <c r="H63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:83" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>59</v>
       </c>
@@ -3585,13 +4014,13 @@
         <v>8.99</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I64" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -3614,13 +4043,13 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I65" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3643,15 +4072,15 @@
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I66" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B67">
         <v>9.9120000000000008</v>
@@ -3672,13 +4101,13 @@
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3701,13 +4130,13 @@
         <v>12</v>
       </c>
       <c r="H68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I68" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -3730,13 +4159,13 @@
         <v>11.98</v>
       </c>
       <c r="H69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I69" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -3759,13 +4188,13 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I70" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3788,13 +4217,13 @@
         <v>11</v>
       </c>
       <c r="H71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I71" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3817,13 +4246,13 @@
         <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I72" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3846,13 +4275,13 @@
         <v>22.71</v>
       </c>
       <c r="H73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I73" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -3875,13 +4304,13 @@
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I74" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -3904,13 +4333,13 @@
         <v>12</v>
       </c>
       <c r="H75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I75" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -3933,13 +4362,13 @@
         <v>12</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I76" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>93</v>
       </c>
@@ -3962,13 +4391,13 @@
         <v>9.35</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I77" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -3991,13 +4420,13 @@
         <v>10.45</v>
       </c>
       <c r="H78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I78" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -4020,13 +4449,13 @@
         <v>12</v>
       </c>
       <c r="H79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I79" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -4049,13 +4478,13 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I80" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -4078,13 +4507,13 @@
         <v>40</v>
       </c>
       <c r="H81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I81" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -4107,13 +4536,13 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I82" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -4136,13 +4565,13 @@
         <v>12</v>
       </c>
       <c r="H83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I83" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -4165,13 +4594,13 @@
         <v>10.99</v>
       </c>
       <c r="H84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I84" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -4194,13 +4623,13 @@
         <v>3.5</v>
       </c>
       <c r="H85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I85" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
         <v>117</v>
       </c>
@@ -4223,13 +4652,13 @@
         <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I86" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -4252,13 +4681,13 @@
         <v>4.17</v>
       </c>
       <c r="H87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I87" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>122</v>
       </c>
@@ -4281,13 +4710,13 @@
         <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I88" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -4310,13 +4739,13 @@
         <v>1.37</v>
       </c>
       <c r="H89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I89" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>130</v>
       </c>
@@ -4339,13 +4768,13 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I90" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -4368,13 +4797,13 @@
         <v>11</v>
       </c>
       <c r="H91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I91" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -4397,13 +4826,13 @@
         <v>16</v>
       </c>
       <c r="H92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>137</v>
       </c>
@@ -4426,13 +4855,13 @@
         <v>12.01</v>
       </c>
       <c r="H93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I93" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -4455,13 +4884,13 @@
         <v>12</v>
       </c>
       <c r="H94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I94" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -4484,13 +4913,13 @@
         <v>25</v>
       </c>
       <c r="H95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I95" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>144</v>
       </c>
@@ -4513,13 +4942,13 @@
         <v>10.35</v>
       </c>
       <c r="H96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I96" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>147</v>
       </c>
@@ -4542,13 +4971,13 @@
         <v>10.78</v>
       </c>
       <c r="H97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I97" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -4571,13 +5000,13 @@
         <v>6</v>
       </c>
       <c r="H98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I98" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>153</v>
       </c>
@@ -4600,13 +5029,13 @@
         <v>15</v>
       </c>
       <c r="H99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I99" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>156</v>
       </c>
@@ -4629,13 +5058,13 @@
         <v>6.3</v>
       </c>
       <c r="H100" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I100" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>157</v>
       </c>
@@ -4658,13 +5087,13 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I101" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>159</v>
       </c>
@@ -4687,13 +5116,13 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="H102" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I102" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>162</v>
       </c>
@@ -4716,13 +5145,13 @@
         <v>12.01</v>
       </c>
       <c r="H103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I103" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -4745,13 +5174,13 @@
         <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I104" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -4774,42 +5203,42 @@
         <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I105" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A106" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="23">
         <v>9.87758</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="23">
         <v>123.37015</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="24">
         <v>2004</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H106" t="s">
-        <v>194</v>
-      </c>
-      <c r="I106" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="G106" s="25">
+        <v>2</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>172</v>
       </c>
@@ -4832,13 +5261,13 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I107" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>174</v>
       </c>
@@ -4861,13 +5290,13 @@
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I108" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -4890,13 +5319,13 @@
         <v>9.6</v>
       </c>
       <c r="H109" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I109" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>180</v>
       </c>
@@ -4919,13 +5348,13 @@
         <v>38.6</v>
       </c>
       <c r="H110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I110" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -4948,44 +5377,45 @@
         <v>5.5</v>
       </c>
       <c r="H111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I111" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A112" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" s="23">
+        <v>10.62839</v>
+      </c>
+      <c r="C112" s="23">
+        <v>124.44394</v>
+      </c>
+      <c r="D112" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B112">
-        <v>10.62839</v>
-      </c>
-      <c r="C112">
-        <v>124.44394</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="24">
+        <v>2002</v>
+      </c>
+      <c r="G112" s="25">
+        <f>AVERAGE(16,33)</f>
+        <v>24.5</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I112" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A113" t="s">
         <v>188</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="5">
-        <v>2002</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H112" t="s">
-        <v>194</v>
-      </c>
-      <c r="I112" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>189</v>
       </c>
       <c r="B113">
         <v>10.687329999999999</v>
@@ -4994,7 +5424,7 @@
         <v>123.49576999999999</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -5006,15 +5436,15 @@
         <v>39.1</v>
       </c>
       <c r="H113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I113" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A114" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B114" s="13">
         <v>10.58644</v>
@@ -5023,7 +5453,7 @@
         <v>124.3038</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>182</v>
@@ -5035,15 +5465,15 @@
         <v>18</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A115" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B115" s="19">
         <v>11.868880000000001</v>
@@ -5052,10 +5482,10 @@
         <v>121.28610999999999</v>
       </c>
       <c r="D115" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="E115" s="19" t="s">
-        <v>303</v>
       </c>
       <c r="F115" s="20">
         <v>1975</v>
@@ -5064,15 +5494,15 @@
         <v>600</v>
       </c>
       <c r="H115" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I115" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A116" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
-        <v>308</v>
       </c>
       <c r="B116">
         <v>13.84</v>
@@ -5089,10 +5519,16 @@
       <c r="G116" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H116" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="I116" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B117">
         <v>13.81</v>
@@ -5101,7 +5537,7 @@
         <v>120.67</v>
       </c>
       <c r="E117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F117" s="5">
         <v>1998</v>
@@ -5109,10 +5545,13 @@
       <c r="G117" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I117" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B118">
         <v>13.73</v>
@@ -5129,10 +5568,16 @@
       <c r="G118" s="17">
         <v>15.39</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H118" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="I118" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B119">
         <v>13.71</v>
@@ -5149,10 +5594,16 @@
       <c r="G119" s="17">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H119" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="I119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B120">
         <v>13.69</v>
@@ -5169,10 +5620,13 @@
       <c r="G120" s="17">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B121">
         <v>13.66</v>
@@ -5189,10 +5643,13 @@
       <c r="G121" s="17">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B122">
         <v>13.49</v>
@@ -5209,10 +5666,13 @@
       <c r="G122" s="17">
         <v>4828</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I122" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B123">
         <v>13.56</v>
@@ -5229,10 +5689,13 @@
       <c r="G123" s="17">
         <v>18.79</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B124">
         <v>13.53</v>
@@ -5249,10 +5712,13 @@
       <c r="G124" s="17">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B125">
         <v>13.93</v>
@@ -5261,7 +5727,7 @@
         <v>120.76</v>
       </c>
       <c r="E125" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F125" s="5">
         <v>2003</v>
@@ -5269,10 +5735,13 @@
       <c r="G125" s="17">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B126">
         <v>13.807</v>
@@ -5281,7 +5750,7 @@
         <v>120.66800000000001</v>
       </c>
       <c r="E126" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F126" s="5">
         <v>1998</v>
@@ -5289,10 +5758,13 @@
       <c r="G126" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I126" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B127">
         <v>9.3859999999999992</v>
@@ -5309,10 +5781,13 @@
       <c r="G127" s="17">
         <v>1013340</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I127" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B128">
         <v>13.41</v>
@@ -5329,10 +5804,13 @@
       <c r="G128" s="17">
         <v>203.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A129" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B129">
         <v>11.99</v>
@@ -5341,7 +5819,7 @@
         <v>120.07</v>
       </c>
       <c r="E129" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F129" s="5">
         <v>2004</v>
@@ -5349,10 +5827,13 @@
       <c r="G129" s="17">
         <v>64</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I129" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A130" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B130">
         <v>11.99</v>
@@ -5369,10 +5850,13 @@
       <c r="G130" s="17">
         <v>52</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I130" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A131" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B131" s="13">
         <v>10.11</v>
@@ -5382,7 +5866,7 @@
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F131" s="14">
         <v>1999</v>
@@ -5391,11 +5875,13 @@
         <v>14.25</v>
       </c>
       <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A132" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B132" s="16">
         <v>11.75177</v>
@@ -5404,10 +5890,10 @@
         <v>121.84847000000001</v>
       </c>
       <c r="D132" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F132" s="5">
         <v>1999</v>
@@ -5416,12 +5902,15 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I132" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A133" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B133" s="16">
         <v>11.735429999999999</v>
@@ -5430,10 +5919,10 @@
         <v>121.98383</v>
       </c>
       <c r="D133" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F133" s="5">
         <v>1999</v>
@@ -5442,12 +5931,15 @@
         <v>2</v>
       </c>
       <c r="H133" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I133" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A134" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B134" s="16">
         <v>11.282220000000001</v>
@@ -5456,10 +5948,10 @@
         <v>122.03666</v>
       </c>
       <c r="D134" t="s">
+        <v>387</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>388</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>389</v>
       </c>
       <c r="F134" s="5">
         <v>1993</v>
@@ -5468,12 +5960,15 @@
         <v>50</v>
       </c>
       <c r="H134" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A135" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B135" s="16">
         <v>12.074159999999999</v>
@@ -5482,10 +5977,10 @@
         <v>121.35361</v>
       </c>
       <c r="D135" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F135" s="5">
         <v>1998</v>
@@ -5494,12 +5989,15 @@
         <v>22</v>
       </c>
       <c r="H135" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I135" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A136" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B136" s="16">
         <v>12.10083</v>
@@ -5508,10 +6006,10 @@
         <v>121.57888</v>
       </c>
       <c r="D136" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F136" s="5">
         <v>1994</v>
@@ -5520,12 +6018,15 @@
         <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A137" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B137" s="16">
         <v>11.75193</v>
@@ -5534,10 +6035,10 @@
         <v>121.86843</v>
       </c>
       <c r="D137" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F137" s="5">
         <v>1999</v>
@@ -5546,12 +6047,15 @@
         <v>3</v>
       </c>
       <c r="H137" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A138" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B138" s="16">
         <v>11.730919999999999</v>
@@ -5560,10 +6064,10 @@
         <v>122.04552</v>
       </c>
       <c r="D138" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F138" s="5">
         <v>1999</v>
@@ -5572,12 +6076,15 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I138" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A139" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B139" s="16">
         <v>11.756159999999999</v>
@@ -5586,10 +6093,10 @@
         <v>121.85239</v>
       </c>
       <c r="D139" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F139" s="5">
         <v>1999</v>
@@ -5598,38 +6105,45 @@
         <v>2</v>
       </c>
       <c r="H139" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A140" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A140" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B140" s="22">
+        <v>11.755940000000001</v>
+      </c>
+      <c r="C140" s="22">
+        <v>121.88564</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="F140" s="24">
+        <v>2003</v>
+      </c>
+      <c r="G140" s="25">
+        <f>AVERAGE(5.76,7.6)</f>
+        <v>6.68</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I140" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A141" s="16" t="s">
         <v>333</v>
-      </c>
-      <c r="B140" s="16">
-        <v>11.755940000000001</v>
-      </c>
-      <c r="C140" s="16">
-        <v>121.88564</v>
-      </c>
-      <c r="D140" t="s">
-        <v>364</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F140" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H140" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A141" s="16" t="s">
-        <v>334</v>
       </c>
       <c r="B141">
         <v>11.885</v>
@@ -5638,10 +6152,10 @@
         <v>121.88083</v>
       </c>
       <c r="D141" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E141" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F141" s="5">
         <v>2004</v>
@@ -5650,38 +6164,44 @@
         <v>25</v>
       </c>
       <c r="H141" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A142" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I141" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A142" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="B142" s="23">
+        <v>11.938000000000001</v>
+      </c>
+      <c r="C142" s="23">
+        <v>122.934</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F142" s="24">
+        <v>2001</v>
+      </c>
+      <c r="G142" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I142" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A143" s="16" t="s">
         <v>335</v>
-      </c>
-      <c r="B142">
-        <v>11.938000000000001</v>
-      </c>
-      <c r="C142">
-        <v>122.934</v>
-      </c>
-      <c r="D142" t="s">
-        <v>360</v>
-      </c>
-      <c r="E142" t="s">
-        <v>358</v>
-      </c>
-      <c r="F142" s="5">
-        <v>2001</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H142" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A143" s="16" t="s">
-        <v>336</v>
       </c>
       <c r="B143">
         <v>11.91211</v>
@@ -5690,10 +6210,10 @@
         <v>121.89852</v>
       </c>
       <c r="D143" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E143" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F143" s="5">
         <v>2005</v>
@@ -5702,12 +6222,15 @@
         <v>4</v>
       </c>
       <c r="H143" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I143" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A144" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B144">
         <v>11.5791</v>
@@ -5716,10 +6239,10 @@
         <v>122.0865</v>
       </c>
       <c r="D144" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E144" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F144" s="5">
         <v>1998</v>
@@ -5728,12 +6251,15 @@
         <v>2.95</v>
       </c>
       <c r="H144" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I144" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A145" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B145">
         <v>10.70246</v>
@@ -5742,10 +6268,10 @@
         <v>121.96852</v>
       </c>
       <c r="D145" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E145" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F145" s="5">
         <v>1999</v>
@@ -5754,12 +6280,15 @@
         <v>1.95</v>
       </c>
       <c r="H145" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I145" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A146" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B146">
         <v>11.76277</v>
@@ -5768,10 +6297,10 @@
         <v>121.92277</v>
       </c>
       <c r="D146" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E146" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F146" s="5">
         <v>2000</v>
@@ -5780,12 +6309,15 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A147" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B147">
         <v>11.195259999999999</v>
@@ -5794,10 +6326,10 @@
         <v>122.02583</v>
       </c>
       <c r="D147" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E147" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F147" s="5">
         <v>1997</v>
@@ -5806,12 +6338,15 @@
         <v>33.47</v>
       </c>
       <c r="H147" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I147" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A148" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B148">
         <v>11.36768</v>
@@ -5820,10 +6355,10 @@
         <v>122.06059999999999</v>
       </c>
       <c r="D148" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E148" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F148" s="5">
         <v>1996</v>
@@ -5832,90 +6367,102 @@
         <v>3.8679999999999999</v>
       </c>
       <c r="H148" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A149" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I148" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A149" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B149" s="23">
+        <v>11.750299999999999</v>
+      </c>
+      <c r="C149" s="23">
+        <v>121.95218</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F149" s="24">
+        <v>2003</v>
+      </c>
+      <c r="G149" s="25">
+        <v>5</v>
+      </c>
+      <c r="H149" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A150" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="B149">
-        <v>11.750299999999999</v>
-      </c>
-      <c r="C149">
-        <v>121.95218</v>
-      </c>
-      <c r="D149" t="s">
-        <v>364</v>
-      </c>
-      <c r="E149" t="s">
-        <v>358</v>
-      </c>
-      <c r="F149" s="5">
-        <v>2003</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H149" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A150" s="16" t="s">
+      <c r="B150" s="23">
+        <v>10.82433</v>
+      </c>
+      <c r="C150" s="23">
+        <v>121.93859</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E150" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="F150" s="24">
+        <v>1992</v>
+      </c>
+      <c r="G150" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H150" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A151" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="B150">
-        <v>10.82433</v>
-      </c>
-      <c r="C150">
-        <v>121.93859</v>
-      </c>
-      <c r="D150" t="s">
-        <v>368</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="B151" s="23">
+        <v>10.434060000000001</v>
+      </c>
+      <c r="C151" s="23">
+        <v>121.99541000000001</v>
+      </c>
+      <c r="D151" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="F150" s="5">
-        <v>1992</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H150" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A151" s="16" t="s">
+      <c r="E151" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F151" s="24">
+        <v>2001</v>
+      </c>
+      <c r="G151" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I151" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A152" s="16" t="s">
         <v>343</v>
-      </c>
-      <c r="B151">
-        <v>10.434060000000001</v>
-      </c>
-      <c r="C151">
-        <v>121.99541000000001</v>
-      </c>
-      <c r="D151" t="s">
-        <v>370</v>
-      </c>
-      <c r="E151" t="s">
-        <v>358</v>
-      </c>
-      <c r="F151" s="5">
-        <v>2001</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H151" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A152" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="B152">
         <v>11.729799999999999</v>
@@ -5924,10 +6471,10 @@
         <v>122.05392999999999</v>
       </c>
       <c r="D152" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E152" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F152" s="5">
         <v>1997</v>
@@ -5936,12 +6483,15 @@
         <v>2</v>
       </c>
       <c r="H152" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A153" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B153">
         <v>11.03919</v>
@@ -5950,10 +6500,10 @@
         <v>122.04707999999999</v>
       </c>
       <c r="D153" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E153" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F153" s="5">
         <v>2002</v>
@@ -5962,12 +6512,15 @@
         <v>1.01</v>
       </c>
       <c r="H153" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A154" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B154">
         <v>10.527419999999999</v>
@@ -5976,10 +6529,10 @@
         <v>121.94182499999999</v>
       </c>
       <c r="D154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E154" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F154" s="5">
         <v>2002</v>
@@ -5988,12 +6541,15 @@
         <v>60</v>
       </c>
       <c r="H154" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A155" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B155">
         <v>10.75583</v>
@@ -6002,10 +6558,10 @@
         <v>121.9225</v>
       </c>
       <c r="D155" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F155" s="5">
         <v>2003</v>
@@ -6014,12 +6570,15 @@
         <v>6.5</v>
       </c>
       <c r="H155" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A156" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B156">
         <v>11.148400000000001</v>
@@ -6028,10 +6587,10 @@
         <v>122.02579</v>
       </c>
       <c r="D156" t="s">
+        <v>374</v>
+      </c>
+      <c r="E156" t="s">
         <v>375</v>
-      </c>
-      <c r="E156" t="s">
-        <v>376</v>
       </c>
       <c r="F156" s="5">
         <v>1998</v>
@@ -6040,12 +6599,15 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I156" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A157" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B157">
         <v>11.730919999999999</v>
@@ -6054,10 +6616,10 @@
         <v>122.04552</v>
       </c>
       <c r="D157" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E157" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F157" s="5">
         <v>1999</v>
@@ -6066,12 +6628,15 @@
         <v>2</v>
       </c>
       <c r="H157" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I157" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A158" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B158">
         <v>11.400550000000001</v>
@@ -6080,10 +6645,10 @@
         <v>122.01472</v>
       </c>
       <c r="D158" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E158" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F158" s="5">
         <v>1991</v>
@@ -6092,12 +6657,15 @@
         <v>28</v>
       </c>
       <c r="H158" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I158" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A159" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B159">
         <v>10.706950000000001</v>
@@ -6106,10 +6674,10 @@
         <v>121.97360999999999</v>
       </c>
       <c r="D159" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E159" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F159" s="5">
         <v>1999</v>
@@ -6118,12 +6686,15 @@
         <v>1.75</v>
       </c>
       <c r="H159" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I159" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A160" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B160">
         <v>11.473549999999999</v>
@@ -6132,10 +6703,10 @@
         <v>122.06749000000001</v>
       </c>
       <c r="D160" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F160" s="5">
         <v>1997</v>
@@ -6144,12 +6715,15 @@
         <v>2.7</v>
       </c>
       <c r="H160" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I160" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A161" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B161">
         <v>10.419566</v>
@@ -6158,10 +6732,10 @@
         <v>121.923891</v>
       </c>
       <c r="D161" t="s">
+        <v>380</v>
+      </c>
+      <c r="E161" t="s">
         <v>381</v>
-      </c>
-      <c r="E161" t="s">
-        <v>382</v>
       </c>
       <c r="F161" s="5">
         <v>1993</v>
@@ -6170,12 +6744,15 @@
         <v>35</v>
       </c>
       <c r="H161" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I161" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A162" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B162">
         <v>11.75033</v>
@@ -6184,10 +6761,10 @@
         <v>121.96899999999999</v>
       </c>
       <c r="D162" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E162" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F162" s="5">
         <v>2000</v>
@@ -6196,12 +6773,15 @@
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I162" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A163" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B163">
         <v>10.98333</v>
@@ -6210,10 +6790,10 @@
         <v>122.01666</v>
       </c>
       <c r="D163" t="s">
+        <v>383</v>
+      </c>
+      <c r="E163" t="s">
         <v>384</v>
-      </c>
-      <c r="E163" t="s">
-        <v>385</v>
       </c>
       <c r="F163" s="5">
         <v>2005</v>
@@ -6222,12 +6802,15 @@
         <v>5</v>
       </c>
       <c r="H163" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I163" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A164" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B164">
         <v>11.73</v>
@@ -6236,10 +6819,10 @@
         <v>122.0419</v>
       </c>
       <c r="D164" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E164" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F164" s="5">
         <v>1997</v>
@@ -6248,12 +6831,15 @@
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+      <c r="I164" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A165" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B165">
         <v>11.602669000000001</v>
@@ -6262,10 +6848,10 @@
         <v>122.045616</v>
       </c>
       <c r="D165" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E165" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F165" s="5">
         <v>1998</v>
@@ -6274,11 +6860,2051 @@
         <v>393.875</v>
       </c>
       <c r="H165" t="s">
-        <v>304</v>
+        <v>303</v>
+      </c>
+      <c r="I165" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A166" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B166" s="23"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="28"/>
+      <c r="F166" s="28">
+        <v>1978</v>
+      </c>
+      <c r="G166" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="H166" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="I166" s="29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A167" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B167">
+        <v>9.24465</v>
+      </c>
+      <c r="C167">
+        <v>123.57170000000001</v>
+      </c>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27">
+        <v>1996</v>
+      </c>
+      <c r="G167" s="27">
+        <v>4.13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>410</v>
+      </c>
+      <c r="I167" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A168" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B168">
+        <v>9.5970110000000002</v>
+      </c>
+      <c r="C168">
+        <v>124.1384</v>
+      </c>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27">
+        <v>2007</v>
+      </c>
+      <c r="G168" s="27">
+        <v>5</v>
+      </c>
+      <c r="H168" t="s">
+        <v>410</v>
+      </c>
+      <c r="I168" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A169" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B169">
+        <v>9.15334</v>
+      </c>
+      <c r="C169">
+        <v>123.497032</v>
+      </c>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27">
+        <v>2009</v>
+      </c>
+      <c r="G169" s="27">
+        <v>6.3</v>
+      </c>
+      <c r="H169" t="s">
+        <v>410</v>
+      </c>
+      <c r="I169" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A170" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B170">
+        <v>9.1737490000000008</v>
+      </c>
+      <c r="C170">
+        <v>123.461242</v>
+      </c>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27">
+        <v>2008</v>
+      </c>
+      <c r="G170" s="27">
+        <v>6.5</v>
+      </c>
+      <c r="H170" t="s">
+        <v>410</v>
+      </c>
+      <c r="I170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A171" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="B171">
+        <v>9.0972629999999999</v>
+      </c>
+      <c r="C171">
+        <v>123.6036</v>
+      </c>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G171" s="27">
+        <v>6.68</v>
+      </c>
+      <c r="H171" t="s">
+        <v>410</v>
+      </c>
+      <c r="I171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A172" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B172">
+        <v>9.097035</v>
+      </c>
+      <c r="C172">
+        <v>123.60478000000001</v>
+      </c>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G172" s="27">
+        <v>6.83</v>
+      </c>
+      <c r="H172" t="s">
+        <v>410</v>
+      </c>
+      <c r="I172" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A173" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="B173">
+        <v>9.1399249999999999</v>
+      </c>
+      <c r="C173">
+        <v>123.50660000000001</v>
+      </c>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27">
+        <v>1987</v>
+      </c>
+      <c r="G173" s="27">
+        <v>7.5</v>
+      </c>
+      <c r="H173" t="s">
+        <v>410</v>
+      </c>
+      <c r="I173" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A174" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="B174">
+        <v>9.0935640000000006</v>
+      </c>
+      <c r="C174">
+        <v>123.588576</v>
+      </c>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G174" s="27">
+        <v>8.23</v>
+      </c>
+      <c r="H174" t="s">
+        <v>410</v>
+      </c>
+      <c r="I174" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A175" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="B175">
+        <v>10.917490000000001</v>
+      </c>
+      <c r="C175">
+        <v>123.89319999999999</v>
+      </c>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27">
+        <v>1997</v>
+      </c>
+      <c r="G175" s="27">
+        <v>10</v>
+      </c>
+      <c r="H175" t="s">
+        <v>410</v>
+      </c>
+      <c r="I175" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A176" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B176">
+        <v>9.0997920000000008</v>
+      </c>
+      <c r="C176">
+        <v>123.559697</v>
+      </c>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27">
+        <v>2010</v>
+      </c>
+      <c r="G176" s="27">
+        <v>12</v>
+      </c>
+      <c r="H176" t="s">
+        <v>410</v>
+      </c>
+      <c r="I176" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A177" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="B177">
+        <v>9.276389</v>
+      </c>
+      <c r="C177">
+        <v>123.5946</v>
+      </c>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27">
+        <v>1988</v>
+      </c>
+      <c r="G177" s="27">
+        <v>12.13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>410</v>
+      </c>
+      <c r="I177" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A178" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B178">
+        <v>9.2869259999999993</v>
+      </c>
+      <c r="C178">
+        <v>123.5936</v>
+      </c>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G178" s="27">
+        <v>13.38</v>
+      </c>
+      <c r="H178" t="s">
+        <v>410</v>
+      </c>
+      <c r="I178" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A179" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="B179">
+        <v>9.2197440000000004</v>
+      </c>
+      <c r="C179">
+        <v>123.4862</v>
+      </c>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G179" s="27">
+        <v>13.51</v>
+      </c>
+      <c r="H179" t="s">
+        <v>410</v>
+      </c>
+      <c r="I179" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A180" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="B180">
+        <v>9.1215489999999999</v>
+      </c>
+      <c r="C180">
+        <v>123.6735</v>
+      </c>
+      <c r="D180" s="27"/>
+      <c r="F180" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G180" s="27">
+        <v>14.63</v>
+      </c>
+      <c r="H180" t="s">
+        <v>410</v>
+      </c>
+      <c r="I180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A181" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B181">
+        <v>9.2117789999999999</v>
+      </c>
+      <c r="C181">
+        <v>123.6686</v>
+      </c>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G181" s="27">
+        <v>21.36</v>
+      </c>
+      <c r="H181" t="s">
+        <v>410</v>
+      </c>
+      <c r="I181" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A182" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="B182">
+        <v>9.8548880000000008</v>
+      </c>
+      <c r="C182">
+        <v>123.5748</v>
+      </c>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G182" s="27">
+        <v>21.36</v>
+      </c>
+      <c r="H182" t="s">
+        <v>410</v>
+      </c>
+      <c r="I182" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A183" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B183">
+        <v>9.1669090000000004</v>
+      </c>
+      <c r="C183">
+        <v>123.6718</v>
+      </c>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27">
+        <v>1996</v>
+      </c>
+      <c r="G183" s="27">
+        <v>24.2</v>
+      </c>
+      <c r="H183" t="s">
+        <v>410</v>
+      </c>
+      <c r="I183" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A184" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B184">
+        <v>9.2874130000000008</v>
+      </c>
+      <c r="C184">
+        <v>123.6416</v>
+      </c>
+      <c r="D184" s="27"/>
+      <c r="F184" s="27">
+        <v>1987</v>
+      </c>
+      <c r="G184" s="27">
+        <v>24.45</v>
+      </c>
+      <c r="H184" t="s">
+        <v>410</v>
+      </c>
+      <c r="I184" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A185" t="s">
+        <v>509</v>
+      </c>
+      <c r="B185">
+        <v>8.8589579999999994</v>
+      </c>
+      <c r="C185">
+        <v>123.4104</v>
+      </c>
+      <c r="F185" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G185">
+        <v>960.26499999999999</v>
+      </c>
+      <c r="H185" t="s">
+        <v>508</v>
+      </c>
+      <c r="I185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A186" t="s">
+        <v>510</v>
+      </c>
+      <c r="B186">
+        <v>8.7461110000000009</v>
+      </c>
+      <c r="C186">
+        <v>123.23</v>
+      </c>
+      <c r="F186" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G186">
+        <v>1187.51</v>
+      </c>
+      <c r="H186" t="s">
+        <v>508</v>
+      </c>
+      <c r="I186" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A187" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27">
+        <v>2008</v>
+      </c>
+      <c r="G187" s="27">
+        <v>5</v>
+      </c>
+      <c r="H187" t="s">
+        <v>417</v>
+      </c>
+      <c r="I187" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A188" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B188">
+        <v>9.4936640000000008</v>
+      </c>
+      <c r="C188">
+        <v>123.9145</v>
+      </c>
+      <c r="D188" s="27"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="27">
+        <v>1986</v>
+      </c>
+      <c r="G188" s="27">
+        <v>11.9</v>
+      </c>
+      <c r="H188" t="s">
+        <v>417</v>
+      </c>
+      <c r="I188" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A189" t="s">
+        <v>418</v>
+      </c>
+      <c r="B189">
+        <v>9.5159000000000002</v>
+      </c>
+      <c r="C189">
+        <v>123.6797</v>
+      </c>
+      <c r="F189" s="5">
+        <v>1999</v>
+      </c>
+      <c r="G189">
+        <v>3.44</v>
+      </c>
+      <c r="H189" t="s">
+        <v>417</v>
+      </c>
+      <c r="I189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A190" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27">
+        <v>1998</v>
+      </c>
+      <c r="G190" s="27">
+        <v>6456.87</v>
+      </c>
+      <c r="H190" t="s">
+        <v>417</v>
+      </c>
+      <c r="I190" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A191" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G191" s="27">
+        <v>1164.1600000000001</v>
+      </c>
+      <c r="H191" t="s">
+        <v>417</v>
+      </c>
+      <c r="I191" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A192" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B192">
+        <v>9.5577249999999996</v>
+      </c>
+      <c r="C192">
+        <v>123.72377299999999</v>
+      </c>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G192" s="27">
+        <v>385.67</v>
+      </c>
+      <c r="H192" t="s">
+        <v>417</v>
+      </c>
+      <c r="I192" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A193" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27">
+        <v>2004</v>
+      </c>
+      <c r="G193" s="27">
+        <v>245.38</v>
+      </c>
+      <c r="H193" t="s">
+        <v>417</v>
+      </c>
+      <c r="I193" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A194" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D194" s="27"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="27">
+        <v>1989</v>
+      </c>
+      <c r="G194" s="27">
+        <v>210</v>
+      </c>
+      <c r="H194" t="s">
+        <v>417</v>
+      </c>
+      <c r="I194" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A195" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27">
+        <v>0</v>
+      </c>
+      <c r="G195" s="27">
+        <v>210</v>
+      </c>
+      <c r="H195" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A196" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G196" s="27">
+        <v>209.93</v>
+      </c>
+      <c r="H196" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A197" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G197" s="27">
+        <v>200</v>
+      </c>
+      <c r="H197" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A198" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27">
+        <v>1993</v>
+      </c>
+      <c r="G198" s="27">
+        <v>200</v>
+      </c>
+      <c r="H198" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A199" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27">
+        <v>1997</v>
+      </c>
+      <c r="G199" s="27">
+        <v>127.9</v>
+      </c>
+      <c r="H199" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A200" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27">
+        <v>2008</v>
+      </c>
+      <c r="G200" s="27">
+        <v>104.2</v>
+      </c>
+      <c r="H200" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A201" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G201" s="27">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="H201" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A202" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27">
+        <v>0</v>
+      </c>
+      <c r="G202" s="27">
+        <v>71.2</v>
+      </c>
+      <c r="H202" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A203" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27"/>
+      <c r="F203" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G203" s="27">
+        <v>70</v>
+      </c>
+      <c r="H203" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A204" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="F204" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G204" s="27">
+        <v>67.72</v>
+      </c>
+      <c r="H204" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A205" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27">
+        <v>1986</v>
+      </c>
+      <c r="G205" s="27">
+        <v>60</v>
+      </c>
+      <c r="H205" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A206" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27">
+        <v>1997</v>
+      </c>
+      <c r="G206" s="27">
+        <v>59</v>
+      </c>
+      <c r="H206" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A207" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27">
+        <v>2011</v>
+      </c>
+      <c r="G207" s="27">
+        <v>52.6</v>
+      </c>
+      <c r="H207" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A208" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27">
+        <v>1993</v>
+      </c>
+      <c r="G208" s="27">
+        <v>52</v>
+      </c>
+      <c r="H208" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A209" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G209" s="27">
+        <v>51.56</v>
+      </c>
+      <c r="H209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A210" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G210" s="27">
+        <v>50</v>
+      </c>
+      <c r="H210" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A211" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G211" s="27">
+        <v>50</v>
+      </c>
+      <c r="H211" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A212" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27">
+        <v>1995</v>
+      </c>
+      <c r="G212" s="27">
+        <v>50</v>
+      </c>
+      <c r="H212" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A213" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G213" s="27">
+        <v>50</v>
+      </c>
+      <c r="H213" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A214" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G214" s="27">
+        <v>50</v>
+      </c>
+      <c r="H214" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A215" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G215" s="27">
+        <v>44.8</v>
+      </c>
+      <c r="H215" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A216" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G216" s="27">
+        <v>43.9</v>
+      </c>
+      <c r="H216" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A217" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G217" s="27">
+        <v>43.28</v>
+      </c>
+      <c r="H217" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A218" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G218" s="27">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="H218" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A219" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="D219" s="27"/>
+      <c r="F219" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G219" s="27">
+        <v>35</v>
+      </c>
+      <c r="H219" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A220" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G220" s="27">
+        <v>34</v>
+      </c>
+      <c r="H220" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A221" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="D221" s="27"/>
+      <c r="E221" s="27"/>
+      <c r="F221" s="27">
+        <v>2001</v>
+      </c>
+      <c r="G221" s="27">
+        <v>33</v>
+      </c>
+      <c r="H221" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A222" s="27" t="s">
+        <v>451</v>
+      </c>
+      <c r="D222" s="27"/>
+      <c r="E222" s="27"/>
+      <c r="F222" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G222" s="27">
+        <v>30.39</v>
+      </c>
+      <c r="H222" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A223" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G223" s="27">
+        <v>30</v>
+      </c>
+      <c r="H223" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A224" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="D224" s="27"/>
+      <c r="E224" s="27"/>
+      <c r="F224" s="27">
+        <v>0</v>
+      </c>
+      <c r="G224" s="27">
+        <v>29</v>
+      </c>
+      <c r="H224" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A225" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
+      <c r="F225" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G225" s="27">
+        <v>28</v>
+      </c>
+      <c r="H225" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A226" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27">
+        <v>2006</v>
+      </c>
+      <c r="G226" s="27">
+        <v>27.5</v>
+      </c>
+      <c r="H226" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A227" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D227" s="27"/>
+      <c r="E227" s="27"/>
+      <c r="F227" s="27">
+        <v>2001</v>
+      </c>
+      <c r="G227" s="27">
+        <v>26.7</v>
+      </c>
+      <c r="H227" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A228" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="27">
+        <v>1989</v>
+      </c>
+      <c r="G228" s="27">
+        <v>26.5</v>
+      </c>
+      <c r="H228" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A229" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="27">
+        <v>2001</v>
+      </c>
+      <c r="G229" s="27">
+        <v>26.22</v>
+      </c>
+      <c r="H229" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A230" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
+      <c r="F230" s="27">
+        <v>1993</v>
+      </c>
+      <c r="G230" s="27">
+        <v>25</v>
+      </c>
+      <c r="H230" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A231" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27">
+        <v>1993</v>
+      </c>
+      <c r="G231" s="27">
+        <v>25</v>
+      </c>
+      <c r="H231" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A232" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D232" s="27"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G232" s="27">
+        <v>24.86</v>
+      </c>
+      <c r="H232" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A233" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G233" s="27">
+        <v>24</v>
+      </c>
+      <c r="H233" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A234" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="D234" s="27"/>
+      <c r="F234" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G234" s="27">
+        <v>23.61</v>
+      </c>
+      <c r="H234" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A235" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="D235" s="27"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G235" s="27">
+        <v>22.22</v>
+      </c>
+      <c r="H235" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A236" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G236" s="27">
+        <v>22.2</v>
+      </c>
+      <c r="H236" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A237" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
+      <c r="F237" s="27">
+        <v>1996</v>
+      </c>
+      <c r="G237" s="27">
+        <v>22</v>
+      </c>
+      <c r="H237" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A238" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27"/>
+      <c r="F238" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G238" s="27">
+        <v>21.79</v>
+      </c>
+      <c r="H238" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A239" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="D239" s="27"/>
+      <c r="E239" s="27"/>
+      <c r="F239" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G239" s="27">
+        <v>21.7</v>
+      </c>
+      <c r="H239" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A240" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
+      <c r="F240" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G240" s="27">
+        <v>21.56</v>
+      </c>
+      <c r="H240" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A241" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="D241" s="27"/>
+      <c r="E241" s="27"/>
+      <c r="F241" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G241" s="27">
+        <v>21</v>
+      </c>
+      <c r="H241" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A242" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="D242" s="27"/>
+      <c r="E242" s="27"/>
+      <c r="F242" s="27">
+        <v>2016</v>
+      </c>
+      <c r="G242" s="27">
+        <v>20.6</v>
+      </c>
+      <c r="H242" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A243" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="D243" s="27"/>
+      <c r="E243" s="27"/>
+      <c r="F243" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G243" s="27">
+        <v>20</v>
+      </c>
+      <c r="H243" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A244" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="D244" s="27"/>
+      <c r="E244" s="27"/>
+      <c r="F244" s="27">
+        <v>1994</v>
+      </c>
+      <c r="G244" s="27">
+        <v>20</v>
+      </c>
+      <c r="H244" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A245" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="D245" s="27"/>
+      <c r="E245" s="27"/>
+      <c r="F245" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G245" s="27">
+        <v>20</v>
+      </c>
+      <c r="H245" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A246" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="D246" s="27"/>
+      <c r="E246" s="27"/>
+      <c r="F246" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G246" s="27">
+        <v>20</v>
+      </c>
+      <c r="H246" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A247" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="D247" s="27"/>
+      <c r="E247" s="27"/>
+      <c r="F247" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G247" s="27">
+        <v>20</v>
+      </c>
+      <c r="H247" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A248" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="D248" s="27"/>
+      <c r="E248" s="27"/>
+      <c r="F248" s="27">
+        <v>2004</v>
+      </c>
+      <c r="G248" s="27">
+        <v>20</v>
+      </c>
+      <c r="H248" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A249" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="D249" s="27"/>
+      <c r="F249" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G249" s="27">
+        <v>20</v>
+      </c>
+      <c r="H249" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A250" s="27" t="s">
+        <v>479</v>
+      </c>
+      <c r="D250" s="27"/>
+      <c r="E250" s="27"/>
+      <c r="F250" s="27">
+        <v>1996</v>
+      </c>
+      <c r="G250" s="27">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="H250" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A251" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="D251" s="27"/>
+      <c r="E251" s="27"/>
+      <c r="F251" s="27">
+        <v>2005</v>
+      </c>
+      <c r="G251" s="27">
+        <v>19</v>
+      </c>
+      <c r="H251" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A252" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="D252" s="27"/>
+      <c r="E252" s="27"/>
+      <c r="F252" s="27">
+        <v>0</v>
+      </c>
+      <c r="G252" s="27">
+        <v>19</v>
+      </c>
+      <c r="H252" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A253" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="D253" s="27"/>
+      <c r="E253" s="27"/>
+      <c r="F253" s="27">
+        <v>0</v>
+      </c>
+      <c r="G253" s="27">
+        <v>19</v>
+      </c>
+      <c r="H253" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A254" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27"/>
+      <c r="F254" s="27">
+        <v>2005</v>
+      </c>
+      <c r="G254" s="27">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H254" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A255" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="D255" s="27"/>
+      <c r="E255" s="27"/>
+      <c r="F255" s="27">
+        <v>1996</v>
+      </c>
+      <c r="G255" s="27">
+        <v>18.62</v>
+      </c>
+      <c r="H255" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A256" s="27" t="s">
+        <v>485</v>
+      </c>
+      <c r="D256" s="27"/>
+      <c r="E256" s="27"/>
+      <c r="F256" s="27">
+        <v>2001</v>
+      </c>
+      <c r="G256" s="27">
+        <v>18.55</v>
+      </c>
+      <c r="H256" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A257" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="D257" s="27"/>
+      <c r="E257" s="27"/>
+      <c r="F257" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G257" s="27">
+        <v>18.04</v>
+      </c>
+      <c r="H257" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A258" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="D258" s="27"/>
+      <c r="E258" s="27"/>
+      <c r="F258" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G258" s="27">
+        <v>18</v>
+      </c>
+      <c r="H258" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A259" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="D259" s="27"/>
+      <c r="E259" s="27"/>
+      <c r="F259" s="27">
+        <v>2001</v>
+      </c>
+      <c r="G259" s="27">
+        <v>18</v>
+      </c>
+      <c r="H259" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A260" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="D260" s="27"/>
+      <c r="E260" s="27"/>
+      <c r="F260" s="27">
+        <v>1995</v>
+      </c>
+      <c r="G260" s="27">
+        <v>17.45</v>
+      </c>
+      <c r="H260" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A261" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="D261" s="27"/>
+      <c r="E261" s="27"/>
+      <c r="F261" s="27">
+        <v>2007</v>
+      </c>
+      <c r="G261" s="27">
+        <v>17.39</v>
+      </c>
+      <c r="H261" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A262" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="D262" s="27"/>
+      <c r="E262" s="27"/>
+      <c r="F262" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G262" s="27">
+        <v>16.21</v>
+      </c>
+      <c r="H262" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A263" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="D263" s="27"/>
+      <c r="E263" s="27"/>
+      <c r="F263" s="27">
+        <v>0</v>
+      </c>
+      <c r="G263" s="27">
+        <v>16</v>
+      </c>
+      <c r="H263" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A264" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="D264" s="27"/>
+      <c r="F264" s="27">
+        <v>0</v>
+      </c>
+      <c r="G264" s="27">
+        <v>16</v>
+      </c>
+      <c r="H264" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A265" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="D265" s="27"/>
+      <c r="E265" s="27"/>
+      <c r="F265" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G265" s="27">
+        <v>15.99</v>
+      </c>
+      <c r="H265" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A266" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="D266" s="27"/>
+      <c r="E266" s="27"/>
+      <c r="F266" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G266" s="27">
+        <v>15.83</v>
+      </c>
+      <c r="H266" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A267" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D267" s="27"/>
+      <c r="E267" s="27"/>
+      <c r="F267" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G267" s="27">
+        <v>15.62</v>
+      </c>
+      <c r="H267" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A268" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="D268" s="27"/>
+      <c r="E268" s="27"/>
+      <c r="F268" s="27">
+        <v>2003</v>
+      </c>
+      <c r="G268" s="27">
+        <v>15.52</v>
+      </c>
+      <c r="H268" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A269" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="D269" s="27"/>
+      <c r="E269" s="27"/>
+      <c r="F269" s="27">
+        <v>2001</v>
+      </c>
+      <c r="G269" s="27">
+        <v>15.45</v>
+      </c>
+      <c r="H269" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A270" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="D270" s="27"/>
+      <c r="E270" s="27"/>
+      <c r="F270" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G270" s="27">
+        <v>15</v>
+      </c>
+      <c r="H270" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A271" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="D271" s="27"/>
+      <c r="E271" s="27"/>
+      <c r="F271" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G271" s="27">
+        <v>15</v>
+      </c>
+      <c r="H271" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A272" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="D272" s="27"/>
+      <c r="E272" s="27"/>
+      <c r="F272" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G272" s="27">
+        <v>15</v>
+      </c>
+      <c r="H272" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A273" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D273" s="27"/>
+      <c r="E273" s="27"/>
+      <c r="F273" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G273" s="27">
+        <v>14.25</v>
+      </c>
+      <c r="H273" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A274" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D274" s="27"/>
+      <c r="E274" s="27"/>
+      <c r="F274" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G274" s="27">
+        <v>14.14</v>
+      </c>
+      <c r="H274" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A275" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D275" s="27"/>
+      <c r="E275" s="27"/>
+      <c r="F275" s="27">
+        <v>1999</v>
+      </c>
+      <c r="G275" s="27">
+        <v>14.1</v>
+      </c>
+      <c r="H275" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A276" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D276" s="27"/>
+      <c r="E276" s="27"/>
+      <c r="F276" s="27">
+        <v>2002</v>
+      </c>
+      <c r="G276" s="27">
+        <v>13.7</v>
+      </c>
+      <c r="H276" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A277" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="D277" s="27"/>
+      <c r="E277" s="27"/>
+      <c r="F277" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G277" s="27">
+        <v>13.42</v>
+      </c>
+      <c r="H277" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A278" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="D278" s="27"/>
+      <c r="E278" s="27"/>
+      <c r="F278" s="27">
+        <v>2006</v>
+      </c>
+      <c r="G278" s="27">
+        <v>13.3</v>
+      </c>
+      <c r="H278" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A279" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="D279" s="27"/>
+      <c r="F279" s="27">
+        <v>2001</v>
+      </c>
+      <c r="G279" s="27">
+        <v>13</v>
+      </c>
+      <c r="H279" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>